--- a/Predictions/Full_Table_Formatted_GW12.xlsx
+++ b/Predictions/Full_Table_Formatted_GW12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\FP5\PL-Score-Predictor-V5\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316813CB-0A2A-4720-A979-2D904B57A0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5D69FD-303C-4D10-9A02-6ECB4BA76DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,6 +518,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -551,20 +565,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC48F02F-D519-4A1F-8CF7-F2A480C41EAA}" name="Table2" displayName="Table2" ref="A1:E1048563" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BC48F02F-D519-4A1F-8CF7-F2A480C41EAA}" name="Table2" displayName="Table2" ref="A1:E1048563" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E1048563" xr:uid="{C0730F65-C071-457E-B054-22EA41647707}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F487B77-138D-4553-8164-0EAC1996C5DF}" name="Team1"/>
@@ -897,7 +897,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="26">
-        <f>SUM(C2:E2)</f>
+        <f t="shared" ref="B2:B21" si="0">SUM(C2:E2)</f>
         <v>38</v>
       </c>
       <c r="C2" s="26">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="26">
-        <f>SUM(C2*3,D2)</f>
+        <f t="shared" ref="F2:F21" si="1">SUM(C2*3,D2)</f>
         <v>98</v>
       </c>
     </row>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="26">
-        <f>SUM(C3:E3)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C3" s="26">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="26">
-        <f>SUM(C3*3,D3)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
     </row>
@@ -976,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="26">
-        <f>SUM(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C4" s="26">
@@ -989,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="26">
-        <f>SUM(C4*3,D4)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="26">
-        <f>SUM(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C5" s="26">
@@ -1011,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="26">
-        <f>SUM(C5*3,D5)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="27">
-        <f>SUM(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C6" s="27">
@@ -1033,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="27">
-        <f>SUM(C6*3,D6)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="27">
-        <f>SUM(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C7" s="27">
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="27">
-        <f>SUM(C7*3,D7)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="29">
-        <f>SUM(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C8" s="29">
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="29">
-        <f>SUM(C8*3,D8)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <f>SUM(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C9">
@@ -1099,7 +1099,7 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <f>SUM(C9*3,D9)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <f>SUM(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C10">
@@ -1121,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <f>SUM(C10*3,D10)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <f>SUM(C11:E11)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C11">
@@ -1143,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <f>SUM(C11*3,D11)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <f>SUM(C12:E12)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C12">
@@ -1165,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="F12">
-        <f>SUM(C12*3,D12)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <f>SUM(C13:E13)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C13">
@@ -1187,7 +1187,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <f>SUM(C13*3,D13)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>SUM(C14:E14)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C14">
@@ -1209,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <f>SUM(C14*3,D14)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <f>SUM(C15:E15)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C15">
@@ -1231,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <f>SUM(C15*3,D15)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>37</v>
       </c>
       <c r="B16">
-        <f>SUM(C16:E16)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C16">
@@ -1253,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <f>SUM(C16*3,D16)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <f>SUM(C17:E17)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C17">
@@ -1275,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <f>SUM(C17*3,D17)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="28">
-        <f>SUM(C18:E18)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C18" s="28">
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="28">
-        <f>SUM(C18*3,D18)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="28">
-        <f>SUM(C19:E19)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C19" s="28">
@@ -1319,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="28">
-        <f>SUM(C19*3,D19)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="28">
-        <f>SUM(C20:E20)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C20" s="28">
@@ -1341,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="28">
-        <f>SUM(C20*3,D20)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="28">
-        <f>SUM(C21:E21)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C21" s="28">
@@ -1363,7 +1363,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="28">
-        <f>SUM(C21*3,D21)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -16200,11 +16200,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D366A1-2595-42B2-BD67-F0DC5B54F5DC}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
@@ -16255,7 +16261,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E30" si="0">IF(C3&gt;D3, 3, IF(C3=D3,1,0))</f>
+        <f t="shared" ref="E3:E15" si="0">IF(C3&gt;D3, 3, IF(C3=D3,1,0))</f>
         <v>3</v>
       </c>
     </row>
@@ -17364,7 +17370,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E30" si="0">IF(C3&gt;D3, 3, IF(C3=D3,1,0))</f>
+        <f t="shared" ref="E3:E15" si="0">IF(C3&gt;D3, 3, IF(C3=D3,1,0))</f>
         <v>1</v>
       </c>
     </row>
@@ -17907,7 +17913,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:E28" si="0">IF(C2&gt;D2, 3, IF(C2=D2,1,0))</f>
+        <f t="shared" ref="E2:E13" si="0">IF(C2&gt;D2, 3, IF(C2=D2,1,0))</f>
         <v>1</v>
       </c>
     </row>
